--- a/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
+++ b/ig/terminology/CodeSystem-medcom-acknowledgement-error-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>
